--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_장재혁.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_장재혁.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-48387000" yWindow="-48387000" windowWidth="2147483648" windowHeight="2147483648"/>
+    <workbookView xWindow="-2147483648" yWindow="-2147483648" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="출석현황" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="동영상 강의" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="미션클리어" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="목표량" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="시간관리" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -22,10 +23,18 @@
     <author>moon5408</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <t>리액트를 다루는 기술 책의 예제 소스 
 11번 예제를 기반으로 항목 수정하기
+</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <t>복사 붙여넣기가 아닌
+찾아온 10가지의 ES6 문법을 이해하면서 작성하였습니다.
+써보지 않은 문법들도 있어서 자주 들여다보며 익숙해져야 할 것 같습니다.
 </t>
       </text>
     </comment>
@@ -224,6 +233,138 @@
   <si>
     <t>첫번째 미션</t>
   </si>
+  <si>
+    <t>시간 관리</t>
+  </si>
+  <si>
+    <t>10시~11시</t>
+  </si>
+  <si>
+    <t>할일</t>
+  </si>
+  <si>
+    <t>기술면접풀이</t>
+  </si>
+  <si>
+    <t>11시~1시</t>
+  </si>
+  <si>
+    <t>11시~12시</t>
+  </si>
+  <si>
+    <t>알고리즘 코딩풀이</t>
+  </si>
+  <si>
+    <t>12시~1시</t>
+  </si>
+  <si>
+    <t>점심시간</t>
+  </si>
+  <si>
+    <t>1시~2시</t>
+  </si>
+  <si>
+    <t>오전시간 마무리하기</t>
+  </si>
+  <si>
+    <t>2시~4시</t>
+  </si>
+  <si>
+    <t>동영상강의 시청</t>
+  </si>
+  <si>
+    <t>4시~6시</t>
+  </si>
+  <si>
+    <t>미션 진행</t>
+  </si>
+  <si>
+    <t>6시~7시</t>
+  </si>
+  <si>
+    <t>저녁시간</t>
+  </si>
+  <si>
+    <t>7시~8시</t>
+  </si>
+  <si>
+    <t>발표시간</t>
+  </si>
+  <si>
+    <t>8시~</t>
+  </si>
+  <si>
+    <t>끝내지 못한 일과 마무리</t>
+  </si>
+  <si>
+    <t>13강</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://react.vlpt.us/</t>
+  </si>
+  <si>
+    <t>벨로퍼트 리액트 강의</t>
+  </si>
+  <si>
+    <t>벨로퍼트 리액트 강의 (입문)</t>
+  </si>
+  <si>
+    <t>11 / 27</t>
+  </si>
+  <si>
+    <t>벨로퍼트 리액트 ( 입문편 )</t>
+  </si>
+  <si>
+    <t>45% ( 12 / 27 )</t>
+  </si>
+  <si>
+    <t>보류</t>
+  </si>
+  <si>
+    <t>7월3일</t>
+  </si>
+  <si>
+    <t>기술면접풀이 이해하기</t>
+  </si>
+  <si>
+    <t>14 / 27</t>
+  </si>
+  <si>
+    <t>기술면접풀이 ES6 를 이해하며 작성하기</t>
+  </si>
+  <si>
+    <t>51% ( 14 / 27 )</t>
+  </si>
+  <si>
+    <t>7월4일</t>
+  </si>
+  <si>
+    <t>알고리즘풀이,기술면접풀이만 진행하였습니다.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>63% ( 17 / 27 )</t>
+  </si>
+  <si>
+    <t>7월5일</t>
+  </si>
+  <si>
+    <t>7월6일</t>
+  </si>
+  <si>
+    <t>벨로퍼트 리액트 강의 ( 입문 )</t>
+  </si>
+  <si>
+    <t>17 / 27</t>
+  </si>
+  <si>
+    <t>7월7일 (목표)</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <color theme="1"/>
       <scheme val="minor"/>
@@ -265,8 +406,22 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
     </font>
+    <font>
+      <color rgb="000563C1"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +448,36 @@
         <fgColor rgb="00C3D69B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBE5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D99694"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00953734"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5B9B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +568,72 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,26 +976,53 @@
       <c r="B3" s="4" t="n">
         <v>0.39930555555555558</v>
       </c>
+      <c r="C3" s="4" t="n">
+        <v>0.88194444444444442</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
+      <c r="B4" s="4" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.88888888888888884</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
+      <c r="B5" s="4" t="n">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.79166666666666663</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
+      <c r="B7" s="4" t="n">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -872,7 +1150,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299958" footer="0.299958"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst/>
 </worksheet>
@@ -880,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -926,12 +1204,24 @@
         <v>31</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299958" footer="0.299958"/>
   <extLst/>
 </worksheet>
 </file>
@@ -973,14 +1263,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299958" footer="0.299958"/>
   <extLst/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1045,50 +1335,258 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="true">
-      <c r="A4" s="22" t="s">
+    <row r="4" s="12" customFormat="true">
+      <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="14" t="n">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="true">
-      <c r="A5" s="22" t="s">
+    <row r="5" s="12" customFormat="true">
+      <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="true">
+      <c r="A6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" s="32" customFormat="true">
+      <c r="A7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="true">
+      <c r="A8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.51000000000000001</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" s="12" customFormat="true">
+      <c r="A9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="21" customFormat="true">
-      <c r="A6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="23" t="n">
+      <c r="D9" s="14" t="n">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" s="32" customFormat="true">
+      <c r="A10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" s="32" customFormat="true">
+      <c r="A11" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" s="21" customFormat="true">
+      <c r="A12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299958" footer="0.299958"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
   <extLst/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="31.9318" style="8" customWidth="true"/>
+    <col min="2" max="2" width="31.7045" style="8" customWidth="true"/>
+    <col min="3" max="6" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>
+  <extLst/>
+</worksheet>
 </file>